--- a/biology/Zoologie/Brachistosternus_roigalsinai/Brachistosternus_roigalsinai.xlsx
+++ b/biology/Zoologie/Brachistosternus_roigalsinai/Brachistosternus_roigalsinai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachistosternus roigalsinai est une espèce de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Chili[1]. Elle se rencontre dans les régions de Coquimbo et d'Atacama.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Chili. Elle se rencontre dans les régions de Coquimbo et d'Atacama.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 61,94 mm et la femelle paratype 65,84 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 61,94 mm et la femelle paratype 65,84 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Arturo Roig Alsina[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Arturo Roig Alsina.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ojanguren Affilastro, 2002 : Nuevos aportes al conocimiento del género Brachistosternus en Chile, con la descripción de dos nuevas especies (Scorpiones, Bothriuridae). Boletín de la Sociedad de Biología de Concepción (Chile), vol. 73, p. 37-46 (texte intégral).</t>
         </is>
